--- a/Data/FicheroEmpleados/Empleados.xlsx
+++ b/Data/FicheroEmpleados/Empleados.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://stihlgroup-my.sharepoint.com/personal/roboticprocessautomation_rpa1_stihl_es/Documents/Documents/UiPath/STIHL_GV_RT1_03_GastosDeViaje/Data/FicheroEmpleados/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{AE2F09E9-8F78-4031-BEB0-F83C2B753D0C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="7" documentId="8_{AE2F09E9-8F78-4031-BEB0-F83C2B753D0C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{82534FAC-EB02-4CD0-B070-B76737B34F51}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{5B76B3E9-B611-4358-88A7-BBD588DAAB95}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="54">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="55">
   <si>
     <t>Empleado - Identificador</t>
   </si>
@@ -198,6 +198,9 @@
   </si>
   <si>
     <t>javier.sicilia@stihl.es</t>
+  </si>
+  <si>
+    <t>icorral@rpatechnologies.es</t>
   </si>
 </sst>
 </file>
@@ -578,10 +581,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D99ADE55-A79B-41E1-80B2-896BF52C601E}">
-  <dimension ref="A1:B27"/>
+  <dimension ref="A1:C27"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B28" sqref="B28"/>
+      <selection activeCell="H9" sqref="H9:H10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -590,7 +593,7 @@
     <col min="2" max="2" width="33" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -598,242 +601,345 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>2</v>
       </c>
       <c r="B2" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="C2" s="1" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>3</v>
       </c>
       <c r="B3" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="C3" s="1" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>4</v>
       </c>
       <c r="B4" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="C4" s="1" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>5</v>
       </c>
       <c r="B5" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="C5" s="1" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>6</v>
       </c>
       <c r="B6" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="C6" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>7</v>
       </c>
       <c r="B7" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="C7" s="1" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>8</v>
       </c>
       <c r="B8" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="C8" s="1" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>9</v>
       </c>
       <c r="B9" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="C9" s="1" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>10</v>
       </c>
       <c r="B10" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="C10" s="1" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>11</v>
       </c>
       <c r="B11" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="C11" s="1" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>12</v>
       </c>
       <c r="B12" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="C12" s="1" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>13</v>
       </c>
       <c r="B13" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="C13" s="1" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>14</v>
       </c>
       <c r="B14" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="C14" s="1" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>15</v>
       </c>
       <c r="B15" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="C15" s="1" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>16</v>
       </c>
       <c r="B16" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="C16" s="1" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
         <v>17</v>
       </c>
       <c r="B17" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="C17" s="1" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
         <v>18</v>
       </c>
       <c r="B18" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="C18" s="1" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
         <v>19</v>
       </c>
       <c r="B19" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="C19" s="1" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
         <v>20</v>
       </c>
       <c r="B20" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="C20" s="1" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
         <v>21</v>
       </c>
       <c r="B21" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="C21" s="1" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
         <v>22</v>
       </c>
       <c r="B22" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="C22" s="1" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
         <v>23</v>
       </c>
       <c r="B23" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="C23" s="1" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
         <v>24</v>
       </c>
       <c r="B24" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="C24" s="1" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
         <v>25</v>
       </c>
       <c r="B25" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="C25" s="1" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
         <v>26</v>
       </c>
       <c r="B26" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="C26" s="1" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
         <v>27</v>
       </c>
       <c r="B27" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="C27" s="1" t="s">
         <v>48</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="B2" r:id="rId1" xr:uid="{B6713BE6-250D-4768-9D4D-298EF89C6839}"/>
-    <hyperlink ref="B3" r:id="rId2" xr:uid="{A378A5DA-085A-4593-90B8-F70D9E1C169B}"/>
-    <hyperlink ref="B4" r:id="rId3" xr:uid="{665B887B-8F04-4DB7-A68B-931A1C3951AD}"/>
-    <hyperlink ref="B5" r:id="rId4" xr:uid="{E0F96BCD-158C-4F21-98EB-3FE03AACF5D0}"/>
-    <hyperlink ref="B6" r:id="rId5" xr:uid="{F50726ED-91C2-43B8-AB4C-8344AC74DC4B}"/>
-    <hyperlink ref="B7" r:id="rId6" xr:uid="{4F34A978-0D07-418B-ACE3-CCEE76DDA675}"/>
-    <hyperlink ref="B8" r:id="rId7" xr:uid="{469F94C4-25F8-46EA-893A-A5BB91247DF3}"/>
-    <hyperlink ref="B9" r:id="rId8" xr:uid="{EA7A3A5D-E209-440B-9977-85D769B849A8}"/>
-    <hyperlink ref="B10" r:id="rId9" xr:uid="{DEDF162F-36CD-4B33-A325-1C427B0EE9F5}"/>
-    <hyperlink ref="B11" r:id="rId10" xr:uid="{F20A5E31-B070-43DA-B293-CA3BCE52C97B}"/>
-    <hyperlink ref="B12" r:id="rId11" xr:uid="{A3797453-1DC7-4B6B-98D3-13069410F56B}"/>
-    <hyperlink ref="B13" r:id="rId12" xr:uid="{066AD1CF-C9E6-4F36-A39A-E7BDA6EBBDAB}"/>
-    <hyperlink ref="B14" r:id="rId13" xr:uid="{0906715E-18F9-4ED3-93F0-8F35D3667D93}"/>
-    <hyperlink ref="B15" r:id="rId14" xr:uid="{4DBD1D4B-A4CF-42B6-8B64-8FCD5A76A7F7}"/>
-    <hyperlink ref="B16" r:id="rId15" xr:uid="{93A90A4E-1C54-4AA6-8DE1-38DDC10EC91B}"/>
-    <hyperlink ref="B17" r:id="rId16" xr:uid="{E188D705-1C49-4720-A549-784072E0B82E}"/>
-    <hyperlink ref="B18" r:id="rId17" xr:uid="{09BB74D4-B8E3-46F5-85CD-08489B41031C}"/>
-    <hyperlink ref="B19" r:id="rId18" xr:uid="{E47365D9-695D-4400-A6D0-8B6B9A73A4E6}"/>
-    <hyperlink ref="B20" r:id="rId19" xr:uid="{C83F7FCE-B383-40B0-86A7-EABEA617C28F}"/>
-    <hyperlink ref="B21" r:id="rId20" xr:uid="{D844D89E-3BF1-4FF5-9B3C-60B70B0ED6CC}"/>
-    <hyperlink ref="B22" r:id="rId21" xr:uid="{AF9C9F3E-9FF7-4563-846F-255E83E5E0C6}"/>
-    <hyperlink ref="B23" r:id="rId22" xr:uid="{07C14426-4A7D-4E4E-9AD1-774103437A9E}"/>
-    <hyperlink ref="B24" r:id="rId23" xr:uid="{5A1B1377-F66A-477C-9053-8EC384655D08}"/>
-    <hyperlink ref="B25" r:id="rId24" xr:uid="{10D5367E-ABDE-4910-AF7E-3726CFA09488}"/>
-    <hyperlink ref="B26" r:id="rId25" xr:uid="{F1CAA7ED-15E1-4607-AF7B-B7C935F26090}"/>
-    <hyperlink ref="B27" r:id="rId26" xr:uid="{39A1D575-E82B-4203-879C-32AAB415B329}"/>
+    <hyperlink ref="B3" r:id="rId1" display="inaki.altamira@stihl.es" xr:uid="{A378A5DA-085A-4593-90B8-F70D9E1C169B}"/>
+    <hyperlink ref="B4" r:id="rId2" display="oriol.pina@stihl.es" xr:uid="{665B887B-8F04-4DB7-A68B-931A1C3951AD}"/>
+    <hyperlink ref="B5" r:id="rId3" display="teresa.nieto@stihl.es" xr:uid="{E0F96BCD-158C-4F21-98EB-3FE03AACF5D0}"/>
+    <hyperlink ref="B6" r:id="rId4" display="begona.ruiz@stihl.es" xr:uid="{F50726ED-91C2-43B8-AB4C-8344AC74DC4B}"/>
+    <hyperlink ref="B7" r:id="rId5" display="adolfo.casasempereblanquer@stihl.es" xr:uid="{4F34A978-0D07-418B-ACE3-CCEE76DDA675}"/>
+    <hyperlink ref="B8" r:id="rId6" display="bernd.hullerum@stihl.es" xr:uid="{469F94C4-25F8-46EA-893A-A5BB91247DF3}"/>
+    <hyperlink ref="B9" r:id="rId7" display="m.martinez@stihl.es" xr:uid="{EA7A3A5D-E209-440B-9977-85D769B849A8}"/>
+    <hyperlink ref="B10" r:id="rId8" display="mario.baltanas@stihl.es" xr:uid="{DEDF162F-36CD-4B33-A325-1C427B0EE9F5}"/>
+    <hyperlink ref="B11" r:id="rId9" display="pedro.moyano@stihl.es" xr:uid="{F20A5E31-B070-43DA-B293-CA3BCE52C97B}"/>
+    <hyperlink ref="B12" r:id="rId10" display="fernando.barrio@stihl.es" xr:uid="{A3797453-1DC7-4B6B-98D3-13069410F56B}"/>
+    <hyperlink ref="B13" r:id="rId11" display="benjamin.mackh@stihl.es" xr:uid="{066AD1CF-C9E6-4F36-A39A-E7BDA6EBBDAB}"/>
+    <hyperlink ref="B14" r:id="rId12" display="alvaro.lopez@stihl.es" xr:uid="{0906715E-18F9-4ED3-93F0-8F35D3667D93}"/>
+    <hyperlink ref="B15" r:id="rId13" display="ana.sanchez@stihl.es" xr:uid="{4DBD1D4B-A4CF-42B6-8B64-8FCD5A76A7F7}"/>
+    <hyperlink ref="B16" r:id="rId14" display="enrique.alonso@stihl.es" xr:uid="{93A90A4E-1C54-4AA6-8DE1-38DDC10EC91B}"/>
+    <hyperlink ref="B17" r:id="rId15" display="arancha.ganan@stihl.es" xr:uid="{E188D705-1C49-4720-A549-784072E0B82E}"/>
+    <hyperlink ref="B18" r:id="rId16" display="jorge.hevia@stihl.es" xr:uid="{09BB74D4-B8E3-46F5-85CD-08489B41031C}"/>
+    <hyperlink ref="B19" r:id="rId17" display="victor.prada@stihl.es" xr:uid="{E47365D9-695D-4400-A6D0-8B6B9A73A4E6}"/>
+    <hyperlink ref="B20" r:id="rId18" display="josep.bresoli@stihl.es" xr:uid="{C83F7FCE-B383-40B0-86A7-EABEA617C28F}"/>
+    <hyperlink ref="B21" r:id="rId19" display="raquel.munoz@stihl.es" xr:uid="{D844D89E-3BF1-4FF5-9B3C-60B70B0ED6CC}"/>
+    <hyperlink ref="B22" r:id="rId20" display="jsanchez@stihl.es" xr:uid="{AF9C9F3E-9FF7-4563-846F-255E83E5E0C6}"/>
+    <hyperlink ref="B23" r:id="rId21" display="joaquin.portillo@stihl.es" xr:uid="{07C14426-4A7D-4E4E-9AD1-774103437A9E}"/>
+    <hyperlink ref="B24" r:id="rId22" display="fernando.alvarocastillo@stihl.es" xr:uid="{5A1B1377-F66A-477C-9053-8EC384655D08}"/>
+    <hyperlink ref="B25" r:id="rId23" display="andres.lopez@stihl.es" xr:uid="{10D5367E-ABDE-4910-AF7E-3726CFA09488}"/>
+    <hyperlink ref="B26" r:id="rId24" display="javier.sicilia@stihl.es" xr:uid="{F1CAA7ED-15E1-4607-AF7B-B7C935F26090}"/>
+    <hyperlink ref="B27" r:id="rId25" display="tony.blanco@stihl.es" xr:uid="{39A1D575-E82B-4203-879C-32AAB415B329}"/>
+    <hyperlink ref="C3" r:id="rId26" xr:uid="{A661F435-3B40-4CF6-8332-80C82FD131A6}"/>
+    <hyperlink ref="C4" r:id="rId27" xr:uid="{60FDA2BF-0CE4-446F-BA71-44AAC779EDA8}"/>
+    <hyperlink ref="C5" r:id="rId28" xr:uid="{46E87EF4-7E0D-4E35-A471-5EA6926FF544}"/>
+    <hyperlink ref="C6" r:id="rId29" xr:uid="{CFDA9558-2004-4DA5-8850-74A3075105D0}"/>
+    <hyperlink ref="C7" r:id="rId30" xr:uid="{EE1DA550-5738-40D9-9DAE-C30D80C5FA14}"/>
+    <hyperlink ref="C8" r:id="rId31" xr:uid="{FE24DFCB-8969-4371-85EB-17387E023F3A}"/>
+    <hyperlink ref="C9" r:id="rId32" xr:uid="{53794086-D3CE-4C32-AB96-FDF687D7DB6B}"/>
+    <hyperlink ref="C10" r:id="rId33" xr:uid="{6D94CBC7-38A2-487D-9168-23CACBB9E5EC}"/>
+    <hyperlink ref="C11" r:id="rId34" xr:uid="{9F767224-94FA-4ABF-B2A1-926585799E31}"/>
+    <hyperlink ref="C12" r:id="rId35" xr:uid="{1A58488D-FD5C-4CA0-8971-721A37D2F544}"/>
+    <hyperlink ref="C13" r:id="rId36" xr:uid="{CB4705F4-B53A-4AFE-AD3B-A0ADC89E6EEA}"/>
+    <hyperlink ref="C14" r:id="rId37" xr:uid="{DF584E4F-30CD-4C80-8B5E-E4FB88E01B4F}"/>
+    <hyperlink ref="C15" r:id="rId38" xr:uid="{892226EE-98ED-4986-9A93-E7B47D75DA0E}"/>
+    <hyperlink ref="C16" r:id="rId39" xr:uid="{CBBB1321-421F-415C-93B4-4838A96704E1}"/>
+    <hyperlink ref="C17" r:id="rId40" xr:uid="{D5054CF0-17C2-47B5-9BC8-650824CE724C}"/>
+    <hyperlink ref="C18" r:id="rId41" xr:uid="{7ECE3D28-E6D4-4D28-8722-9B043C136DB7}"/>
+    <hyperlink ref="C19" r:id="rId42" xr:uid="{6E47E69F-908A-4A15-AC20-5B68BECE46BF}"/>
+    <hyperlink ref="C20" r:id="rId43" xr:uid="{A4E2EAD0-0662-4869-8DDA-D2FAFFBB7745}"/>
+    <hyperlink ref="C21" r:id="rId44" xr:uid="{EF05F45A-E324-4C2E-9369-CDAEE57F97AB}"/>
+    <hyperlink ref="C22" r:id="rId45" xr:uid="{3424C14C-2807-42BD-9479-F58E08165195}"/>
+    <hyperlink ref="C23" r:id="rId46" xr:uid="{3024D042-062C-4826-9077-6C68E288C893}"/>
+    <hyperlink ref="C24" r:id="rId47" xr:uid="{8CD90D3B-AC00-4177-88F8-79105908895E}"/>
+    <hyperlink ref="C25" r:id="rId48" xr:uid="{032E66D1-257A-466D-95A2-4064EEFEC944}"/>
+    <hyperlink ref="C26" r:id="rId49" xr:uid="{B1E811C0-F908-488B-94F9-197A9DFAF8B2}"/>
+    <hyperlink ref="C27" r:id="rId50" xr:uid="{85C28630-9D66-42E3-BE85-3B0E71995A04}"/>
+    <hyperlink ref="C2" r:id="rId51" xr:uid="{73436CF5-17DF-4313-9950-097DBA9C881D}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
